--- a/análisis/Casos de Uso Narrativos/CDUN - (Perfiles) Agregar perfil.xlsx
+++ b/análisis/Casos de Uso Narrativos/CDUN - (Perfiles) Agregar perfil.xlsx
@@ -591,9 +591,6 @@
     <t>Agregar perfil</t>
   </si>
   <si>
-    <t>CDUNXX</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -612,21 +609,12 @@
     <t>El actor Admin podrá crear un nuevo perfil, y asignarle permisos.</t>
   </si>
   <si>
-    <t>Admin: Ingresa nombre del perfil.</t>
-  </si>
-  <si>
     <t>Sistema valida unicidad del perfil.</t>
   </si>
   <si>
-    <t>Admin: Selecciona los permisios que desea asignarle al perfil creado.</t>
-  </si>
-  <si>
     <t>El sistema guarda el perfil con sus permisos</t>
   </si>
   <si>
-    <t>Fin.</t>
-  </si>
-  <si>
     <t>2a</t>
   </si>
   <si>
@@ -651,13 +639,25 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>El Admin seleccionará los permisos para el nuevo perfil desde un checkbox.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Fin del caso de uso</t>
+  </si>
+  <si>
+    <t>Sin implementar</t>
+  </si>
+  <si>
+    <t>Actor Admin: Ingresa nombre del perfil.</t>
+  </si>
+  <si>
+    <t>Actor Admin: Selecciona los permisios que desea asignarle al perfil creado.</t>
   </si>
 </sst>
 </file>
@@ -1146,17 +1146,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1169,20 +1183,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1483,95 +1483,95 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1590,277 +1590,284 @@
     </row>
     <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="23"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="23"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="14"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
@@ -1877,22 +1884,15 @@
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
